--- a/document/intersect.xlsx
+++ b/document/intersect.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -42,16 +42,126 @@
   </si>
   <si>
     <t>commonElements</t>
+  </si>
+  <si>
+    <t>◢</t>
+  </si>
+  <si>
+    <t>comm.iHwnd</t>
+  </si>
+  <si>
+    <t>{int[29]}</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>[18]</t>
+  </si>
+  <si>
+    <t>[19]</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>[21]</t>
+  </si>
+  <si>
+    <t>[22]</t>
+  </si>
+  <si>
+    <t>[23]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[26]</t>
+  </si>
+  <si>
+    <t>[27]</t>
+  </si>
+  <si>
+    <t>[28]</t>
+  </si>
+  <si>
+    <t>lprozori</t>
+  </si>
+  <si>
+    <t>{int[8]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -73,12 +183,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -138,25 +253,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -463,20 +586,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -487,8 +616,28 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -497,6 +646,458 @@
         <v>199576</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="3"/>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>330488</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="4">
+        <v>134094</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="3"/>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="6">
+        <v>199576</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="3"/>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4">
+        <v>723984</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="4">
+        <v>199726</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="4">
+        <v>590452</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="3"/>
+      <c r="G10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="4">
+        <v>199580</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="4">
+        <v>134052</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="3"/>
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="3"/>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="3"/>
+      <c r="G14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="3"/>
+      <c r="G15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
+      <c r="G16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="3"/>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="3"/>
+      <c r="G18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="3"/>
+      <c r="G19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="3"/>
+      <c r="G20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="3"/>
+      <c r="G21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="3"/>
+      <c r="G22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="3"/>
+      <c r="G23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="3"/>
+      <c r="G24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="3"/>
+      <c r="G25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="3"/>
+      <c r="G26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="3"/>
+      <c r="G27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="3"/>
+      <c r="G28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="3"/>
+      <c r="G29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="3"/>
+      <c r="G30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="3"/>
+      <c r="G31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="3"/>
+      <c r="G32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="6">
+        <v>199576</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>4</v>
       </c>
     </row>
